--- a/StreamMetabolism/20220304MillCreek.xlsx
+++ b/StreamMetabolism/20220304MillCreek.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vanderbilt365-my.sharepoint.com/personal/john_c_ayers_vanderbilt_edu/Documents/Projects/StreamMetabolism/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayersj\R\WaterQuality\StreamMetabolism\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3218" documentId="8_{A1D71ED8-0D87-470C-A4CD-D9146B7888EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{832A2B34-60CF-4DC3-8B63-E16B3875938C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6B8E80-7F42-46D6-AB04-7F61750C3A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{4A76C9AB-5044-4041-8766-3A7E817767DD}"/>
+    <workbookView xWindow="3240" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{4A76C9AB-5044-4041-8766-3A7E817767DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Data" sheetId="1" r:id="rId1"/>
@@ -323,13 +323,13 @@
     <t>DO</t>
   </si>
   <si>
-    <t>sal</t>
-  </si>
-  <si>
     <t>ERday</t>
   </si>
   <si>
     <t>Docalc</t>
+  </si>
+  <si>
+    <t>sal (ppt)</t>
   </si>
 </sst>
 </file>
@@ -6720,13 +6720,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F74BD845-5371-4EB2-84DC-6801506FFFA5}">
   <dimension ref="A1:G271"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6746,10 +6746,10 @@
         <v>27</v>
       </c>
       <c r="G1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44623.652557870373</v>
       </c>
@@ -6772,7 +6772,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44623.659502314818</v>
       </c>
@@ -6795,7 +6795,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44623.666446759256</v>
       </c>
@@ -6818,7 +6818,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44623.673391203702</v>
       </c>
@@ -6841,7 +6841,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44623.680335648147</v>
       </c>
@@ -6864,7 +6864,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44623.687280092592</v>
       </c>
@@ -6887,7 +6887,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44623.694224537037</v>
       </c>
@@ -6910,7 +6910,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44623.701168981483</v>
       </c>
@@ -6933,7 +6933,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44623.708113425928</v>
       </c>
@@ -6956,7 +6956,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44623.715057870373</v>
       </c>
@@ -6979,7 +6979,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44623.722002314818</v>
       </c>
@@ -7002,7 +7002,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44623.728946759256</v>
       </c>
@@ -7025,7 +7025,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44623.735891203702</v>
       </c>
@@ -7048,7 +7048,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44623.742835648147</v>
       </c>
@@ -7071,7 +7071,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44623.749780092592</v>
       </c>
@@ -7094,7 +7094,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44623.756724537037</v>
       </c>
@@ -7117,7 +7117,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>44623.763668981483</v>
       </c>
@@ -7140,7 +7140,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>44623.770613425928</v>
       </c>
@@ -7163,7 +7163,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>44623.777557870373</v>
       </c>
@@ -7186,7 +7186,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44623.784502314818</v>
       </c>
@@ -7209,7 +7209,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>44623.791446759256</v>
       </c>
@@ -7232,7 +7232,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>44623.798391203702</v>
       </c>
@@ -7255,7 +7255,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>44623.805335648147</v>
       </c>
@@ -7278,7 +7278,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>44623.812280092592</v>
       </c>
@@ -7301,7 +7301,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>44623.819224537037</v>
       </c>
@@ -7324,7 +7324,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>44623.826168981483</v>
       </c>
@@ -7347,7 +7347,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>44623.833113425928</v>
       </c>
@@ -7370,7 +7370,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>44623.840057870373</v>
       </c>
@@ -7393,7 +7393,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>44623.847002314818</v>
       </c>
@@ -7416,7 +7416,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>44623.853946759256</v>
       </c>
@@ -7439,7 +7439,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>44623.860891203702</v>
       </c>
@@ -7462,7 +7462,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>44623.867835648147</v>
       </c>
@@ -7485,7 +7485,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>44623.874780092592</v>
       </c>
@@ -7508,7 +7508,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>44623.881724537037</v>
       </c>
@@ -7531,7 +7531,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>44623.888668981483</v>
       </c>
@@ -7554,7 +7554,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>44623.895613425928</v>
       </c>
@@ -7577,7 +7577,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>44623.902557870373</v>
       </c>
@@ -7600,7 +7600,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>44623.909502314818</v>
       </c>
@@ -7623,7 +7623,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>44623.916446759256</v>
       </c>
@@ -7646,7 +7646,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>44623.923391203702</v>
       </c>
@@ -7669,7 +7669,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>44623.930335648147</v>
       </c>
@@ -7692,7 +7692,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>44623.937280092592</v>
       </c>
@@ -7715,7 +7715,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>44623.944224537037</v>
       </c>
@@ -7738,7 +7738,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44623.951168981483</v>
       </c>
@@ -7761,7 +7761,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44623.958113425928</v>
       </c>
@@ -7784,7 +7784,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>44623.965057870373</v>
       </c>
@@ -7807,7 +7807,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>44623.972002314818</v>
       </c>
@@ -7830,7 +7830,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>44623.978946759256</v>
       </c>
@@ -7853,7 +7853,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>44623.985891203702</v>
       </c>
@@ -7876,7 +7876,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>44623.992835648147</v>
       </c>
@@ -7899,7 +7899,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>44623.999780092592</v>
       </c>
@@ -7922,7 +7922,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>44624.006724537037</v>
       </c>
@@ -7945,7 +7945,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>44624.013668981483</v>
       </c>
@@ -7968,7 +7968,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>44624.020613425928</v>
       </c>
@@ -7991,7 +7991,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>44624.027557870373</v>
       </c>
@@ -8014,7 +8014,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>44624.034502314818</v>
       </c>
@@ -8037,7 +8037,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>44624.041446759256</v>
       </c>
@@ -8060,7 +8060,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>44624.048391203702</v>
       </c>
@@ -8083,7 +8083,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>44624.055335648147</v>
       </c>
@@ -8106,7 +8106,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>44624.062280092592</v>
       </c>
@@ -8129,7 +8129,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>44624.069224537037</v>
       </c>
@@ -8152,7 +8152,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>44624.076168981483</v>
       </c>
@@ -8175,7 +8175,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>44624.083113425928</v>
       </c>
@@ -8198,7 +8198,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>44624.090057870373</v>
       </c>
@@ -8221,7 +8221,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>44624.097002314818</v>
       </c>
@@ -8244,7 +8244,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>44624.103946759256</v>
       </c>
@@ -8267,7 +8267,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>44624.110891203702</v>
       </c>
@@ -8290,7 +8290,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>44624.117835648147</v>
       </c>
@@ -8313,7 +8313,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>44624.124780092592</v>
       </c>
@@ -8336,7 +8336,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>44624.131724537037</v>
       </c>
@@ -8359,7 +8359,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>44624.138668981483</v>
       </c>
@@ -8382,7 +8382,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>44624.145613425928</v>
       </c>
@@ -8405,7 +8405,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>44624.152557870373</v>
       </c>
@@ -8428,7 +8428,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>44624.159502314818</v>
       </c>
@@ -8451,7 +8451,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>44624.166446759256</v>
       </c>
@@ -8474,7 +8474,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>44624.173391203702</v>
       </c>
@@ -8497,7 +8497,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>44624.180335648147</v>
       </c>
@@ -8520,7 +8520,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>44624.187280092592</v>
       </c>
@@ -8543,7 +8543,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>44624.194224537037</v>
       </c>
@@ -8566,7 +8566,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>44624.201168981483</v>
       </c>
@@ -8589,7 +8589,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>44624.208113425928</v>
       </c>
@@ -8612,7 +8612,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>44624.215057870373</v>
       </c>
@@ -8635,7 +8635,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>44624.222002314818</v>
       </c>
@@ -8658,7 +8658,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>44624.228946759256</v>
       </c>
@@ -8681,7 +8681,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>44624.235891203702</v>
       </c>
@@ -8704,7 +8704,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>44624.242835648147</v>
       </c>
@@ -8727,7 +8727,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>44624.249780092592</v>
       </c>
@@ -8750,7 +8750,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>44624.256724537037</v>
       </c>
@@ -8773,7 +8773,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>44624.263668981483</v>
       </c>
@@ -8796,7 +8796,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>44624.270613425928</v>
       </c>
@@ -8819,7 +8819,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>44624.277557870373</v>
       </c>
@@ -8842,7 +8842,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>44624.284502314818</v>
       </c>
@@ -8865,7 +8865,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>44624.291446759256</v>
       </c>
@@ -8888,7 +8888,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>44624.298391203702</v>
       </c>
@@ -8911,7 +8911,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>44624.305335648147</v>
       </c>
@@ -8934,7 +8934,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>44624.312280092592</v>
       </c>
@@ -8957,7 +8957,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>44624.319224537037</v>
       </c>
@@ -8980,7 +8980,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>44624.326168981483</v>
       </c>
@@ -9003,7 +9003,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>44624.333113425928</v>
       </c>
@@ -9026,7 +9026,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>44624.340057870373</v>
       </c>
@@ -9049,7 +9049,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>44624.347002314818</v>
       </c>
@@ -9072,7 +9072,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>44624.353946759256</v>
       </c>
@@ -9095,7 +9095,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>44624.360891203702</v>
       </c>
@@ -9118,7 +9118,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>44624.367835648147</v>
       </c>
@@ -9141,7 +9141,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>44624.374780092592</v>
       </c>
@@ -9164,7 +9164,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>44624.381724537037</v>
       </c>
@@ -9187,7 +9187,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>44624.388668981483</v>
       </c>
@@ -9210,7 +9210,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>44624.395613425928</v>
       </c>
@@ -9233,7 +9233,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>44624.402557870373</v>
       </c>
@@ -9256,7 +9256,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>44624.409502314818</v>
       </c>
@@ -9279,7 +9279,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>44624.416446759256</v>
       </c>
@@ -9302,7 +9302,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>44624.423391203702</v>
       </c>
@@ -9325,7 +9325,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>44624.430335648147</v>
       </c>
@@ -9348,7 +9348,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>44624.437280092592</v>
       </c>
@@ -9371,7 +9371,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>44624.444224537037</v>
       </c>
@@ -9394,7 +9394,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>44624.451168981483</v>
       </c>
@@ -9417,7 +9417,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>44624.458113425928</v>
       </c>
@@ -9440,7 +9440,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>44624.465057870373</v>
       </c>
@@ -9463,7 +9463,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>44624.472002314818</v>
       </c>
@@ -9486,7 +9486,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>44624.478946759256</v>
       </c>
@@ -9509,7 +9509,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>44624.485891203702</v>
       </c>
@@ -9532,7 +9532,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>44624.492835648147</v>
       </c>
@@ -9555,7 +9555,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>44624.499780092592</v>
       </c>
@@ -9578,7 +9578,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>44624.506724537037</v>
       </c>
@@ -9601,7 +9601,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>44624.513668981483</v>
       </c>
@@ -9624,7 +9624,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>44624.520613425928</v>
       </c>
@@ -9647,7 +9647,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>44624.527557870373</v>
       </c>
@@ -9670,7 +9670,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>44624.534502314818</v>
       </c>
@@ -9693,7 +9693,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>44624.541446759256</v>
       </c>
@@ -9716,7 +9716,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>44624.548391203702</v>
       </c>
@@ -9739,7 +9739,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>44624.555335648147</v>
       </c>
@@ -9762,7 +9762,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>44624.562280092592</v>
       </c>
@@ -9785,7 +9785,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>44624.569224537037</v>
       </c>
@@ -9808,7 +9808,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>44624.576168981483</v>
       </c>
@@ -9831,7 +9831,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>44624.583113425928</v>
       </c>
@@ -9854,7 +9854,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>44624.590057870373</v>
       </c>
@@ -9877,7 +9877,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>44624.597002314818</v>
       </c>
@@ -9900,7 +9900,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>44624.603946759256</v>
       </c>
@@ -9923,7 +9923,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>44624.610891203702</v>
       </c>
@@ -9946,7 +9946,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>44624.617835648147</v>
       </c>
@@ -9969,7 +9969,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>44624.624780092592</v>
       </c>
@@ -9992,7 +9992,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>44624.631724537037</v>
       </c>
@@ -10015,7 +10015,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>44624.638668981483</v>
       </c>
@@ -10038,7 +10038,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>44624.645613425928</v>
       </c>
@@ -10061,7 +10061,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>44624.652557870373</v>
       </c>
@@ -10084,7 +10084,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>44624.659502314818</v>
       </c>
@@ -10107,7 +10107,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>44624.666446759256</v>
       </c>
@@ -10130,7 +10130,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>44624.673391203702</v>
       </c>
@@ -10153,7 +10153,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>44624.680335648147</v>
       </c>
@@ -10176,7 +10176,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>44624.687280092592</v>
       </c>
@@ -10199,7 +10199,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>44624.694224537037</v>
       </c>
@@ -10222,7 +10222,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>44624.701168981483</v>
       </c>
@@ -10245,7 +10245,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>44624.708113425928</v>
       </c>
@@ -10268,7 +10268,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>44624.715057870373</v>
       </c>
@@ -10291,7 +10291,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>44624.722002314818</v>
       </c>
@@ -10314,7 +10314,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>44624.728946759256</v>
       </c>
@@ -10337,7 +10337,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>44624.735891203702</v>
       </c>
@@ -10360,7 +10360,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>44624.742835648147</v>
       </c>
@@ -10383,7 +10383,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>44624.749780092592</v>
       </c>
@@ -10406,7 +10406,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>44624.756724537037</v>
       </c>
@@ -10429,7 +10429,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>44624.763668981483</v>
       </c>
@@ -10452,7 +10452,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>44624.770613425928</v>
       </c>
@@ -10475,7 +10475,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>44624.777557870373</v>
       </c>
@@ -10498,7 +10498,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>44624.784502314818</v>
       </c>
@@ -10521,7 +10521,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>44624.791446759256</v>
       </c>
@@ -10544,7 +10544,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>44624.798391203702</v>
       </c>
@@ -10567,7 +10567,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>44624.805335648147</v>
       </c>
@@ -10590,7 +10590,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>44624.812280092592</v>
       </c>
@@ -10613,7 +10613,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>44624.819224537037</v>
       </c>
@@ -10636,7 +10636,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>44624.826168981483</v>
       </c>
@@ -10659,7 +10659,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>44624.833113425928</v>
       </c>
@@ -10682,7 +10682,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>44624.840057870373</v>
       </c>
@@ -10705,7 +10705,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>44624.847002314818</v>
       </c>
@@ -10728,7 +10728,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>44624.853946759256</v>
       </c>
@@ -10751,7 +10751,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>44624.860891203702</v>
       </c>
@@ -10774,7 +10774,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>44624.867835648147</v>
       </c>
@@ -10797,7 +10797,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>44624.874780092592</v>
       </c>
@@ -10820,7 +10820,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>44624.881724537037</v>
       </c>
@@ -10843,7 +10843,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>44624.888668981483</v>
       </c>
@@ -10866,7 +10866,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>44624.895613425928</v>
       </c>
@@ -10889,7 +10889,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>44624.902557870373</v>
       </c>
@@ -10912,7 +10912,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>44624.909502314818</v>
       </c>
@@ -10935,7 +10935,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>44624.916446759256</v>
       </c>
@@ -10958,7 +10958,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>44624.923391203702</v>
       </c>
@@ -10981,7 +10981,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>44624.930335648147</v>
       </c>
@@ -11004,7 +11004,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>44624.937280092592</v>
       </c>
@@ -11027,7 +11027,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>44624.944224537037</v>
       </c>
@@ -11050,7 +11050,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>44624.951168981483</v>
       </c>
@@ -11073,7 +11073,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>44624.958113425928</v>
       </c>
@@ -11096,7 +11096,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>44624.965057870373</v>
       </c>
@@ -11119,7 +11119,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>44624.972002314818</v>
       </c>
@@ -11142,7 +11142,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>44624.978946759256</v>
       </c>
@@ -11165,7 +11165,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>44624.985891203702</v>
       </c>
@@ -11188,7 +11188,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>44624.992835648147</v>
       </c>
@@ -11211,7 +11211,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>44624.999780092592</v>
       </c>
@@ -11234,7 +11234,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>44625.006724537037</v>
       </c>
@@ -11257,7 +11257,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>44625.013668981483</v>
       </c>
@@ -11280,7 +11280,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>44625.020613425928</v>
       </c>
@@ -11303,7 +11303,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>44625.027557870373</v>
       </c>
@@ -11326,7 +11326,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>44625.034502314818</v>
       </c>
@@ -11349,7 +11349,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>44625.041446759256</v>
       </c>
@@ -11372,7 +11372,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>44625.048391203702</v>
       </c>
@@ -11395,7 +11395,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>44625.055335648147</v>
       </c>
@@ -11418,7 +11418,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>44625.062280092592</v>
       </c>
@@ -11441,7 +11441,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>44625.069224537037</v>
       </c>
@@ -11464,7 +11464,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>44625.076168981483</v>
       </c>
@@ -11487,7 +11487,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>44625.083113425928</v>
       </c>
@@ -11510,7 +11510,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>44625.090057870373</v>
       </c>
@@ -11533,7 +11533,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>44625.097002314818</v>
       </c>
@@ -11556,7 +11556,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>44625.103946759256</v>
       </c>
@@ -11579,7 +11579,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>44625.110891203702</v>
       </c>
@@ -11602,7 +11602,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>44625.117835648147</v>
       </c>
@@ -11625,7 +11625,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>44625.124780092592</v>
       </c>
@@ -11648,7 +11648,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>44625.131724537037</v>
       </c>
@@ -11671,7 +11671,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>44625.138668981483</v>
       </c>
@@ -11694,7 +11694,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>44625.145613425928</v>
       </c>
@@ -11717,7 +11717,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>44625.152557870373</v>
       </c>
@@ -11740,7 +11740,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>44625.159502314818</v>
       </c>
@@ -11763,7 +11763,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>44625.166446759256</v>
       </c>
@@ -11786,7 +11786,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>44625.173391203702</v>
       </c>
@@ -11809,7 +11809,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>44625.180335648147</v>
       </c>
@@ -11832,7 +11832,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>44625.187280092592</v>
       </c>
@@ -11855,7 +11855,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>44625.194224537037</v>
       </c>
@@ -11878,7 +11878,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>44625.201168981483</v>
       </c>
@@ -11901,7 +11901,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>44625.208113425928</v>
       </c>
@@ -11924,7 +11924,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>44625.215057870373</v>
       </c>
@@ -11947,7 +11947,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>44625.222002314818</v>
       </c>
@@ -11970,7 +11970,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>44625.228946759256</v>
       </c>
@@ -11993,7 +11993,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>44625.235891203702</v>
       </c>
@@ -12016,7 +12016,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>44625.242835648147</v>
       </c>
@@ -12039,7 +12039,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>44625.249780092592</v>
       </c>
@@ -12062,7 +12062,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>44625.256724537037</v>
       </c>
@@ -12085,7 +12085,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>44625.263668981483</v>
       </c>
@@ -12108,7 +12108,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>44625.270613425928</v>
       </c>
@@ -12131,7 +12131,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>44625.277557870373</v>
       </c>
@@ -12154,7 +12154,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>44625.284502314818</v>
       </c>
@@ -12177,7 +12177,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>44625.291446759256</v>
       </c>
@@ -12200,7 +12200,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>44625.298391203702</v>
       </c>
@@ -12223,7 +12223,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>44625.305335648147</v>
       </c>
@@ -12246,7 +12246,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>44625.312280092592</v>
       </c>
@@ -12269,7 +12269,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>44625.319224537037</v>
       </c>
@@ -12292,7 +12292,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>44625.326168981483</v>
       </c>
@@ -12315,7 +12315,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>44625.333113425928</v>
       </c>
@@ -12338,7 +12338,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>44625.340057870373</v>
       </c>
@@ -12361,7 +12361,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>44625.347002314818</v>
       </c>
@@ -12384,7 +12384,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>44625.353946759256</v>
       </c>
@@ -12407,7 +12407,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>44625.360891203702</v>
       </c>
@@ -12430,7 +12430,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>44625.367835648147</v>
       </c>
@@ -12453,7 +12453,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>44625.374780092592</v>
       </c>
@@ -12476,7 +12476,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>44625.381724537037</v>
       </c>
@@ -12499,7 +12499,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>44625.388668981483</v>
       </c>
@@ -12522,7 +12522,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>44625.395613425928</v>
       </c>
@@ -12545,7 +12545,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>44625.402557870373</v>
       </c>
@@ -12568,7 +12568,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>44625.409502314818</v>
       </c>
@@ -12591,7 +12591,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>44625.416446759256</v>
       </c>
@@ -12614,7 +12614,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>44625.423391203702</v>
       </c>
@@ -12637,7 +12637,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>44625.430335648147</v>
       </c>
@@ -12660,7 +12660,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>44625.437280092592</v>
       </c>
@@ -12683,7 +12683,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>44625.444224537037</v>
       </c>
@@ -12706,7 +12706,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>44625.451168981483</v>
       </c>
@@ -12729,7 +12729,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>44625.458113425928</v>
       </c>
@@ -12752,7 +12752,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>44625.465057870373</v>
       </c>
@@ -12775,7 +12775,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>44625.472002314818</v>
       </c>
@@ -12798,7 +12798,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>44625.478946759256</v>
       </c>
@@ -12821,7 +12821,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>44625.485891203702</v>
       </c>
@@ -12844,7 +12844,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>44625.492835648147</v>
       </c>
@@ -12867,7 +12867,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>44625.499780092592</v>
       </c>
@@ -12890,7 +12890,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>44625.506724537037</v>
       </c>
@@ -12913,7 +12913,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>44625.513668981483</v>
       </c>
@@ -12936,7 +12936,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>44625.520613425928</v>
       </c>
@@ -12972,15 +12972,15 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="11.81640625" customWidth="1"/>
-    <col min="13" max="13" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="11.85546875" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>'Raw Data'!A1</f>
         <v>Date</v>
@@ -13029,7 +13029,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <f>'Raw Data'!A53</f>
         <v>44624.006724537037</v>
@@ -13071,7 +13071,7 @@
         <v>2.9300000000000002E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f>'Raw Data'!A54</f>
         <v>44624.013668981483</v>
@@ -13127,7 +13127,7 @@
       </c>
       <c r="Q3" s="6"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f>'Raw Data'!A55</f>
         <v>44624.020613425928</v>
@@ -13181,7 +13181,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f>'Raw Data'!A56</f>
         <v>44624.027557870373</v>
@@ -13232,7 +13232,7 @@
         <v>1.0720000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f>'Raw Data'!A57</f>
         <v>44624.034502314818</v>
@@ -13283,7 +13283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f>'Raw Data'!A58</f>
         <v>44624.041446759256</v>
@@ -13338,7 +13338,7 @@
         <v>4.96</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f>'Raw Data'!A59</f>
         <v>44624.048391203702</v>
@@ -13393,7 +13393,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f>'Raw Data'!A60</f>
         <v>44624.055335648147</v>
@@ -13448,7 +13448,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f>'Raw Data'!A61</f>
         <v>44624.062280092592</v>
@@ -13500,7 +13500,7 @@
         <v>138.68215516680729</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f>'Raw Data'!A62</f>
         <v>44624.069224537037</v>
@@ -13552,7 +13552,7 @@
         <v>338.17823591982528</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f>'Raw Data'!A63</f>
         <v>44624.076168981483</v>
@@ -13604,7 +13604,7 @@
         <v>2.4385129832534225</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f>'Raw Data'!A64</f>
         <v>44624.083113425928</v>
@@ -13649,7 +13649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <f>'Raw Data'!A65</f>
         <v>44624.090057870373</v>
@@ -13694,7 +13694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <f>'Raw Data'!A66</f>
         <v>44624.097002314818</v>
@@ -13739,7 +13739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f>'Raw Data'!A67</f>
         <v>44624.103946759256</v>
@@ -13784,7 +13784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f>'Raw Data'!A68</f>
         <v>44624.110891203702</v>
@@ -13829,7 +13829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f>'Raw Data'!A69</f>
         <v>44624.117835648147</v>
@@ -13874,7 +13874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f>'Raw Data'!A70</f>
         <v>44624.124780092592</v>
@@ -13919,7 +13919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f>'Raw Data'!A71</f>
         <v>44624.131724537037</v>
@@ -13964,7 +13964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f>'Raw Data'!A72</f>
         <v>44624.138668981483</v>
@@ -14009,7 +14009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f>'Raw Data'!A73</f>
         <v>44624.145613425928</v>
@@ -14054,7 +14054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <f>'Raw Data'!A74</f>
         <v>44624.152557870373</v>
@@ -14099,7 +14099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <f>'Raw Data'!A75</f>
         <v>44624.159502314818</v>
@@ -14144,7 +14144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f>'Raw Data'!A76</f>
         <v>44624.166446759256</v>
@@ -14189,7 +14189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <f>'Raw Data'!A77</f>
         <v>44624.173391203702</v>
@@ -14234,7 +14234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <f>'Raw Data'!A78</f>
         <v>44624.180335648147</v>
@@ -14279,7 +14279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <f>'Raw Data'!A79</f>
         <v>44624.187280092592</v>
@@ -14324,7 +14324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <f>'Raw Data'!A80</f>
         <v>44624.194224537037</v>
@@ -14369,7 +14369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <f>'Raw Data'!A81</f>
         <v>44624.201168981483</v>
@@ -14414,7 +14414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <f>'Raw Data'!A82</f>
         <v>44624.208113425928</v>
@@ -14459,7 +14459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <f>'Raw Data'!A83</f>
         <v>44624.215057870373</v>
@@ -14504,7 +14504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <f>'Raw Data'!A84</f>
         <v>44624.222002314818</v>
@@ -14549,7 +14549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <f>'Raw Data'!A85</f>
         <v>44624.228946759256</v>
@@ -14594,7 +14594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <f>'Raw Data'!A86</f>
         <v>44624.235891203702</v>
@@ -14639,7 +14639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <f>'Raw Data'!A87</f>
         <v>44624.242835648147</v>
@@ -14684,7 +14684,7 @@
         <v>4.769928401712064E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <f>'Raw Data'!A88</f>
         <v>44624.249780092592</v>
@@ -14729,7 +14729,7 @@
         <v>6.4190664382729789E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <f>'Raw Data'!A89</f>
         <v>44624.256724537037</v>
@@ -14774,7 +14774,7 @@
         <v>4.0762550930599835E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <f>'Raw Data'!A90</f>
         <v>44624.263668981483</v>
@@ -14819,7 +14819,7 @@
         <v>0.13258182385409903</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <f>'Raw Data'!A91</f>
         <v>44624.270613425928</v>
@@ -14864,7 +14864,7 @@
         <v>0.26244220018598091</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <f>'Raw Data'!A92</f>
         <v>44624.277557870373</v>
@@ -14909,7 +14909,7 @@
         <v>0.39886954771277805</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <f>'Raw Data'!A93</f>
         <v>44624.284502314818</v>
@@ -14954,7 +14954,7 @@
         <v>0.51825826727438973</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <f>'Raw Data'!A94</f>
         <v>44624.291446759256</v>
@@ -14999,7 +14999,7 @@
         <v>0.62758946338432953</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <f>'Raw Data'!A95</f>
         <v>44624.298391203702</v>
@@ -15044,7 +15044,7 @@
         <v>0.60487129276408225</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <f>'Raw Data'!A96</f>
         <v>44624.305335648147</v>
@@ -15089,7 +15089,7 @@
         <v>0.71917208869720117</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <f>'Raw Data'!A97</f>
         <v>44624.312280092592</v>
@@ -15134,7 +15134,7 @@
         <v>1.1382750071186369</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <f>'Raw Data'!A98</f>
         <v>44624.319224537037</v>
@@ -15179,7 +15179,7 @@
         <v>0.99202678375079545</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <f>'Raw Data'!A99</f>
         <v>44624.326168981483</v>
@@ -15224,7 +15224,7 @@
         <v>0.89784103472102039</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <f>'Raw Data'!A100</f>
         <v>44624.333113425928</v>
@@ -15269,7 +15269,7 @@
         <v>0.94966686144845947</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <f>'Raw Data'!A101</f>
         <v>44624.340057870373</v>
@@ -15314,7 +15314,7 @@
         <v>0.99439325985707117</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <f>'Raw Data'!A102</f>
         <v>44624.347002314818</v>
@@ -15359,7 +15359,7 @@
         <v>1.1851312340228968</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <f>'Raw Data'!A103</f>
         <v>44624.353946759256</v>
@@ -15404,7 +15404,7 @@
         <v>1.0336767632212487</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <f>'Raw Data'!A104</f>
         <v>44624.360891203702</v>
@@ -15449,7 +15449,7 @@
         <v>1.4624822336784151</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <f>'Raw Data'!A105</f>
         <v>44624.367835648147</v>
@@ -15494,7 +15494,7 @@
         <v>1.5263770885478603</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <f>'Raw Data'!A106</f>
         <v>44624.374780092592</v>
@@ -15539,7 +15539,7 @@
         <v>2.9533621806321388</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <f>'Raw Data'!A107</f>
         <v>44624.381724537037</v>
@@ -15584,7 +15584,7 @@
         <v>3.8441037870343324</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <f>'Raw Data'!A108</f>
         <v>44624.388668981483</v>
@@ -15629,7 +15629,7 @@
         <v>5.3425564575281381</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <f>'Raw Data'!A109</f>
         <v>44624.395613425928</v>
@@ -15674,7 +15674,7 @@
         <v>6.2740014529582755</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <f>'Raw Data'!A110</f>
         <v>44624.402557870373</v>
@@ -15719,7 +15719,7 @@
         <v>5.3936723414236942</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <f>'Raw Data'!A111</f>
         <v>44624.409502314818</v>
@@ -15764,7 +15764,7 @@
         <v>2.0645137551149664</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <f>'Raw Data'!A112</f>
         <v>44624.416446759256</v>
@@ -15809,7 +15809,7 @@
         <v>4.1915024794356128</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <f>'Raw Data'!A113</f>
         <v>44624.423391203702</v>
@@ -15854,7 +15854,7 @@
         <v>6.3251173368538298</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <f>'Raw Data'!A114</f>
         <v>44624.430335648147</v>
@@ -15899,7 +15899,7 @@
         <v>3.0073178358552259</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <f>'Raw Data'!A115</f>
         <v>44624.437280092592</v>
@@ -15944,7 +15944,7 @@
         <v>7.4307349737058619</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <f>'Raw Data'!A116</f>
         <v>44624.444224537037</v>
@@ -15989,7 +15989,7 @@
         <v>5.8063857743581861</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <f>'Raw Data'!A117</f>
         <v>44624.451168981483</v>
@@ -16034,7 +16034,7 @@
         <v>9.0948409716389715</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <f>'Raw Data'!A118</f>
         <v>44624.458113425928</v>
@@ -16079,7 +16079,7 @@
         <v>10.613172041425495</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <f>'Raw Data'!A119</f>
         <v>44624.465057870373</v>
@@ -16124,7 +16124,7 @@
         <v>8.6026139415336154</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <f>'Raw Data'!A120</f>
         <v>44624.472002314818</v>
@@ -16169,7 +16169,7 @@
         <v>7.1732623733430607</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <f>'Raw Data'!A121</f>
         <v>44624.478946759256</v>
@@ -16214,7 +16214,7 @@
         <v>9.8937633051176661</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <f>'Raw Data'!A122</f>
         <v>44624.485891203702</v>
@@ -16259,7 +16259,7 @@
         <v>9.6703679606852351</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <f>'Raw Data'!A123</f>
         <v>44624.492835648147</v>
@@ -16304,7 +16304,7 @@
         <v>8.0952414643480921</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <f>'Raw Data'!A124</f>
         <v>44624.499780092592</v>
@@ -16349,7 +16349,7 @@
         <v>10.208031332031085</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <f>'Raw Data'!A125</f>
         <v>44624.506724537037</v>
@@ -16394,7 +16394,7 @@
         <v>10.120945011320138</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <f>'Raw Data'!A126</f>
         <v>44624.513668981483</v>
@@ -16439,7 +16439,7 @@
         <v>7.7355370961941796</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <f>'Raw Data'!A127</f>
         <v>44624.520613425928</v>
@@ -16484,7 +16484,7 @@
         <v>6.9517602097956495</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <f>'Raw Data'!A128</f>
         <v>44624.527557870373</v>
@@ -16529,7 +16529,7 @@
         <v>8.2921322763902356</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <f>'Raw Data'!A129</f>
         <v>44624.534502314818</v>
@@ -16574,7 +16574,7 @@
         <v>11.16598085985151</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <f>'Raw Data'!A130</f>
         <v>44624.541446759256</v>
@@ -16619,7 +16619,7 @@
         <v>8.598827579763574</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <f>'Raw Data'!A131</f>
         <v>44624.548391203702</v>
@@ -16664,7 +16664,7 @@
         <v>4.259656991296354</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <f>'Raw Data'!A132</f>
         <v>44624.555335648147</v>
@@ -16709,7 +16709,7 @@
         <v>12.370043902724614</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <f>'Raw Data'!A133</f>
         <v>44624.562280092592</v>
@@ -16754,7 +16754,7 @@
         <v>10.469290294163926</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <f>'Raw Data'!A134</f>
         <v>44624.569224537037</v>
@@ -16799,7 +16799,7 @@
         <v>11.722576040047567</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <f>'Raw Data'!A135</f>
         <v>44624.576168981483</v>
@@ -16844,7 +16844,7 @@
         <v>11.904321405009547</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <f>'Raw Data'!A136</f>
         <v>44624.583113425928</v>
@@ -16889,7 +16889,7 @@
         <v>6.0808970026861733</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <f>'Raw Data'!A137</f>
         <v>44624.590057870373</v>
@@ -16934,7 +16934,7 @@
         <v>12.036844066960986</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <f>'Raw Data'!A138</f>
         <v>44624.597002314818</v>
@@ -16979,7 +16979,7 @@
         <v>11.783157828368227</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <f>'Raw Data'!A139</f>
         <v>44624.603946759256</v>
@@ -17024,7 +17024,7 @@
         <v>8.0800960172679286</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <f>'Raw Data'!A140</f>
         <v>44624.610891203702</v>
@@ -17069,7 +17069,7 @@
         <v>6.1698765042821417</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <f>'Raw Data'!A141</f>
         <v>44624.617835648147</v>
@@ -17114,7 +17114,7 @@
         <v>12.2678121349335</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <f>'Raw Data'!A142</f>
         <v>44624.624780092592</v>
@@ -17159,7 +17159,7 @@
         <v>8.598827579763574</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <f>'Raw Data'!A143</f>
         <v>44624.631724537037</v>
@@ -17204,7 +17204,7 @@
         <v>4.2899478854566837</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <f>'Raw Data'!A144</f>
         <v>44624.638668981483</v>
@@ -17249,7 +17249,7 @@
         <v>3.8090799406614511</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <f>'Raw Data'!A145</f>
         <v>44624.645613425928</v>
@@ -17294,7 +17294,7 @@
         <v>3.9889321247384086</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <f>'Raw Data'!A146</f>
         <v>44624.652557870373</v>
@@ -17339,7 +17339,7 @@
         <v>3.2856154259532548</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <f>'Raw Data'!A147</f>
         <v>44624.659502314818</v>
@@ -17384,7 +17384,7 @@
         <v>2.4100192666312261</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <f>'Raw Data'!A148</f>
         <v>44624.666446759256</v>
@@ -17429,7 +17429,7 @@
         <v>2.2453125296344338</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <f>'Raw Data'!A149</f>
         <v>44624.673391203702</v>
@@ -17474,7 +17474,7 @@
         <v>2.7214475222171153</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <f>'Raw Data'!A150</f>
         <v>44624.680335648147</v>
@@ -17519,7 +17519,7 @@
         <v>2.0219171852020028</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <f>'Raw Data'!A151</f>
         <v>44624.687280092592</v>
@@ -17564,7 +17564,7 @@
         <v>1.6082571618250012</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <f>'Raw Data'!A152</f>
         <v>44624.694224537037</v>
@@ -17609,7 +17609,7 @@
         <v>1.0649142478240885</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <f>'Raw Data'!A153</f>
         <v>44624.701168981483</v>
@@ -17654,7 +17654,7 @@
         <v>1.0814795805680189</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <f>'Raw Data'!A154</f>
         <v>44624.708113425928</v>
@@ -17699,7 +17699,7 @@
         <v>0.68675136604122333</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <f>'Raw Data'!A155</f>
         <v>44624.715057870373</v>
@@ -17744,7 +17744,7 @@
         <v>0.4588597170068684</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <f>'Raw Data'!A156</f>
         <v>44624.722002314818</v>
@@ -17789,7 +17789,7 @@
         <v>0.23658844872491835</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <f>'Raw Data'!A157</f>
         <v>44624.728946759256</v>
@@ -17834,7 +17834,7 @@
         <v>0.12006908144216599</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <f>'Raw Data'!A158</f>
         <v>44624.735891203702</v>
@@ -17879,7 +17879,7 @@
         <v>4.6871017379924128E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <f>'Raw Data'!A159</f>
         <v>44624.742835648147</v>
@@ -17924,7 +17924,7 @@
         <v>1.5552185160930961E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <f>'Raw Data'!A160</f>
         <v>44624.749780092592</v>
@@ -17969,7 +17969,7 @@
         <v>2.1631070658926798E-3</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <f>'Raw Data'!A161</f>
         <v>44624.756724537037</v>
@@ -18014,7 +18014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <f>'Raw Data'!A162</f>
         <v>44624.763668981483</v>
@@ -18059,7 +18059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <f>'Raw Data'!A163</f>
         <v>44624.770613425928</v>
@@ -18104,7 +18104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <f>'Raw Data'!A164</f>
         <v>44624.777557870373</v>
@@ -18149,7 +18149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <f>'Raw Data'!A165</f>
         <v>44624.784502314818</v>
@@ -18194,7 +18194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <f>'Raw Data'!A166</f>
         <v>44624.791446759256</v>
@@ -18239,7 +18239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <f>'Raw Data'!A167</f>
         <v>44624.798391203702</v>
@@ -18284,7 +18284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <f>'Raw Data'!A168</f>
         <v>44624.805335648147</v>
@@ -18329,7 +18329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <f>'Raw Data'!A169</f>
         <v>44624.812280092592</v>
@@ -18374,7 +18374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <f>'Raw Data'!A170</f>
         <v>44624.819224537037</v>
@@ -18419,7 +18419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <f>'Raw Data'!A171</f>
         <v>44624.826168981483</v>
@@ -18464,7 +18464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <f>'Raw Data'!A172</f>
         <v>44624.833113425928</v>
@@ -18509,7 +18509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <f>'Raw Data'!A173</f>
         <v>44624.840057870373</v>
@@ -18554,7 +18554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <f>'Raw Data'!A174</f>
         <v>44624.847002314818</v>
@@ -18599,7 +18599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <f>'Raw Data'!A175</f>
         <v>44624.853946759256</v>
@@ -18644,7 +18644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <f>'Raw Data'!A176</f>
         <v>44624.860891203702</v>
@@ -18689,7 +18689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <f>'Raw Data'!A177</f>
         <v>44624.867835648147</v>
@@ -18734,7 +18734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <f>'Raw Data'!A178</f>
         <v>44624.874780092592</v>
@@ -18779,7 +18779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <f>'Raw Data'!A179</f>
         <v>44624.881724537037</v>
@@ -18824,7 +18824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <f>'Raw Data'!A180</f>
         <v>44624.888668981483</v>
@@ -18869,7 +18869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <f>'Raw Data'!A181</f>
         <v>44624.895613425928</v>
@@ -18914,7 +18914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <f>'Raw Data'!A182</f>
         <v>44624.902557870373</v>
@@ -18959,7 +18959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <f>'Raw Data'!A183</f>
         <v>44624.909502314818</v>
@@ -19004,7 +19004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <f>'Raw Data'!A184</f>
         <v>44624.916446759256</v>
@@ -19049,7 +19049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <f>'Raw Data'!A185</f>
         <v>44624.923391203702</v>
@@ -19094,7 +19094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <f>'Raw Data'!A186</f>
         <v>44624.930335648147</v>
@@ -19139,7 +19139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <f>'Raw Data'!A187</f>
         <v>44624.937280092592</v>
@@ -19184,7 +19184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <f>'Raw Data'!A188</f>
         <v>44624.944224537037</v>
@@ -19229,7 +19229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <f>'Raw Data'!A189</f>
         <v>44624.951168981483</v>
@@ -19274,7 +19274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <f>'Raw Data'!A190</f>
         <v>44624.958113425928</v>
@@ -19319,7 +19319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <f>'Raw Data'!A191</f>
         <v>44624.965057870373</v>
@@ -19364,7 +19364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <f>'Raw Data'!A192</f>
         <v>44624.972002314818</v>
@@ -19409,7 +19409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <f>'Raw Data'!A193</f>
         <v>44624.978946759256</v>
@@ -19454,7 +19454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <f>'Raw Data'!A194</f>
         <v>44624.985891203702</v>
@@ -19499,7 +19499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <f>'Raw Data'!A195</f>
         <v>44624.992835648147</v>
@@ -19544,7 +19544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <f>'Raw Data'!A196</f>
         <v>44624.999780092592</v>
@@ -19578,7 +19578,7 @@
       <c r="K145" s="3"/>
       <c r="L145" s="3"/>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>24</v>
       </c>
@@ -19600,7 +19600,7 @@
       </c>
       <c r="L146" s="3"/>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="2"/>
       <c r="K147" t="s">
@@ -19611,199 +19611,199 @@
         <v>338.17823591982528</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="2"/>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="2"/>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="2"/>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="2"/>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="2"/>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="2"/>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="2"/>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="2"/>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="2"/>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="2"/>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="2"/>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="2"/>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="2"/>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="2"/>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="2"/>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="2"/>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="2"/>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="2"/>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="2"/>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="2"/>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="2"/>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="2"/>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="2"/>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="2"/>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="2"/>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="2"/>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="2"/>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="2"/>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="2"/>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="2"/>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="2"/>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="2"/>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="2"/>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" s="2"/>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="2"/>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="2"/>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="2"/>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="2"/>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="2"/>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" s="2"/>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="2"/>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="2"/>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" s="2"/>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="2"/>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="2"/>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193" s="2"/>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="B194" s="2"/>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195" s="2"/>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="B196" s="2"/>
     </row>
@@ -19818,21 +19818,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D173BA4A-ED82-4280-A50D-BFE6725E1781}">
   <dimension ref="A1:X196"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S146" sqref="S146"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="14" width="0" hidden="1" customWidth="1"/>
-    <col min="15" max="18" width="11.81640625" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="11.81640625" customWidth="1"/>
-    <col min="20" max="20" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="14" width="9.140625" customWidth="1"/>
+    <col min="15" max="19" width="11.85546875" customWidth="1"/>
+    <col min="20" max="20" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>'Raw Data'!A1</f>
         <v>Date</v>
@@ -19861,7 +19860,7 @@
       </c>
       <c r="H1" t="str">
         <f>'Raw Data'!G1</f>
-        <v>sal</v>
+        <v>sal (ppt)</v>
       </c>
       <c r="I1" t="s">
         <v>28</v>
@@ -19894,7 +19893,7 @@
         <v>10</v>
       </c>
       <c r="S1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U1" t="s">
         <v>11</v>
@@ -19903,7 +19902,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="42.65" customHeight="1" x14ac:dyDescent="5.0999999999999996">
+    <row r="2" spans="1:24" ht="42.6" customHeight="1" x14ac:dyDescent="3.5">
       <c r="A2" s="1">
         <f>'Raw Data'!A53</f>
         <v>44624.006724537037</v>
@@ -19961,7 +19960,7 @@
       </c>
       <c r="X2" s="7"/>
     </row>
-    <row r="3" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f>'Raw Data'!A54</f>
         <v>44624.013668981483</v>
@@ -20041,7 +20040,7 @@
       </c>
       <c r="X3" s="6"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f>'Raw Data'!A55</f>
         <v>44624.020613425928</v>
@@ -20119,7 +20118,7 @@
         <v>4.0199999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f>'Raw Data'!A56</f>
         <v>44624.027557870373</v>
@@ -20197,7 +20196,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f>'Raw Data'!A57</f>
         <v>44624.034502314818</v>
@@ -20272,7 +20271,7 @@
         <v>1.0720000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f>'Raw Data'!A58</f>
         <v>44624.041446759256</v>
@@ -20347,7 +20346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f>'Raw Data'!A59</f>
         <v>44624.048391203702</v>
@@ -20426,7 +20425,7 @@
         <v>4.96</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f>'Raw Data'!A60</f>
         <v>44624.055335648147</v>
@@ -20505,7 +20504,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f>'Raw Data'!A61</f>
         <v>44624.062280092592</v>
@@ -20584,7 +20583,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f>'Raw Data'!A62</f>
         <v>44624.069224537037</v>
@@ -20653,14 +20652,14 @@
         <v>9.0508227066377174</v>
       </c>
       <c r="T11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U11">
         <f>86400*R_/600</f>
         <v>138.68205514791663</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f>'Raw Data'!A63</f>
         <v>44624.076168981483</v>
@@ -20736,7 +20735,7 @@
         <v>338.17856356704823</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f>'Raw Data'!A64</f>
         <v>44624.083113425928</v>
@@ -20812,7 +20811,7 @@
         <v>2.4385171045118348</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <f>'Raw Data'!A65</f>
         <v>44624.090057870373</v>
@@ -20881,7 +20880,7 @@
         <v>8.8527285671853164</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <f>'Raw Data'!A66</f>
         <v>44624.097002314818</v>
@@ -20950,7 +20949,7 @@
         <v>8.7870544381268481</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f>'Raw Data'!A67</f>
         <v>44624.103946759256</v>
@@ -21019,7 +21018,7 @@
         <v>8.7214624468062407</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f>'Raw Data'!A68</f>
         <v>44624.110891203702</v>
@@ -21088,7 +21087,7 @@
         <v>8.6560298737931642</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f>'Raw Data'!A69</f>
         <v>44624.117835648147</v>
@@ -21157,7 +21156,7 @@
         <v>8.5907971627641562</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f>'Raw Data'!A70</f>
         <v>44624.124780092592</v>
@@ -21226,7 +21225,7 @@
         <v>8.5258811565853456</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f>'Raw Data'!A71</f>
         <v>44624.131724537037</v>
@@ -21295,7 +21294,7 @@
         <v>8.4610057578892697</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f>'Raw Data'!A72</f>
         <v>44624.138668981483</v>
@@ -21364,7 +21363,7 @@
         <v>8.3962880358554237</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f>'Raw Data'!A73</f>
         <v>44624.145613425928</v>
@@ -21433,7 +21432,7 @@
         <v>8.3317276072579585</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <f>'Raw Data'!A74</f>
         <v>44624.152557870373</v>
@@ -21502,7 +21501,7 @@
         <v>8.267324089802436</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <f>'Raw Data'!A75</f>
         <v>44624.159502314818</v>
@@ -21571,7 +21570,7 @@
         <v>8.2031172911092511</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f>'Raw Data'!A76</f>
         <v>44624.166446759256</v>
@@ -21640,7 +21639,7 @@
         <v>8.1390264527686398</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <f>'Raw Data'!A77</f>
         <v>44624.173391203702</v>
@@ -21709,7 +21708,7 @@
         <v>8.0751713469710769</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <f>'Raw Data'!A78</f>
         <v>44624.180335648147</v>
@@ -21778,7 +21777,7 @@
         <v>8.011435997774905</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <f>'Raw Data'!A79</f>
         <v>44624.187280092592</v>
@@ -21847,7 +21846,7 @@
         <v>7.9478555544032723</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <f>'Raw Data'!A80</f>
         <v>44624.194224537037</v>
@@ -21916,7 +21915,7 @@
         <v>7.8844693157369585</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <f>'Raw Data'!A81</f>
         <v>44624.201168981483</v>
@@ -21985,7 +21984,7 @@
         <v>7.821197555455079</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <f>'Raw Data'!A82</f>
         <v>44624.208113425928</v>
@@ -22054,7 +22053,7 @@
         <v>7.7581585150648493</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <f>'Raw Data'!A83</f>
         <v>44624.215057870373</v>
@@ -22123,7 +22122,7 @@
         <v>7.6952726881527447</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <f>'Raw Data'!A84</f>
         <v>44624.222002314818</v>
@@ -22192,7 +22191,7 @@
         <v>7.6325048000148783</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <f>'Raw Data'!A85</f>
         <v>44624.228946759256</v>
@@ -22261,7 +22260,7 @@
         <v>7.5699286346548487</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <f>'Raw Data'!A86</f>
         <v>44624.235891203702</v>
@@ -22330,7 +22329,7 @@
         <v>7.5073916131162592</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <f>'Raw Data'!A87</f>
         <v>44624.242835648147</v>
@@ -22399,7 +22398,7 @@
         <v>7.4451235844770105</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <f>'Raw Data'!A88</f>
         <v>44624.249780092592</v>
@@ -22468,7 +22467,7 @@
         <v>7.3830399987425919</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <f>'Raw Data'!A89</f>
         <v>44624.256724537037</v>
@@ -22537,7 +22536,7 @@
         <v>7.3215585270237185</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <f>'Raw Data'!A90</f>
         <v>44624.263668981483</v>
@@ -22606,7 +22605,7 @@
         <v>7.262537946636634</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <f>'Raw Data'!A91</f>
         <v>44624.270613425928</v>
@@ -22675,7 +22674,7 @@
         <v>7.2101171186550026</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <f>'Raw Data'!A92</f>
         <v>44624.277557870373</v>
@@ -22744,7 +22743,7 @@
         <v>7.1668199016408378</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <f>'Raw Data'!A93</f>
         <v>44624.284502314818</v>
@@ -22813,7 +22812,7 @@
         <v>7.1331061115643575</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <f>'Raw Data'!A94</f>
         <v>44624.291446759256</v>
@@ -22882,7 +22881,7 @@
         <v>7.1079419888946944</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <f>'Raw Data'!A95</f>
         <v>44624.298391203702</v>
@@ -22951,7 +22950,7 @@
         <v>7.0904419146464264</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <f>'Raw Data'!A96</f>
         <v>44624.305335648147</v>
@@ -23020,7 +23019,7 @@
         <v>7.0715135887642679</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <f>'Raw Data'!A97</f>
         <v>44624.312280092592</v>
@@ -23089,7 +23088,7 @@
         <v>7.0606319723417919</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <f>'Raw Data'!A98</f>
         <v>44624.319224537037</v>
@@ -23158,7 +23157,7 @@
         <v>7.0789501389488914</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <f>'Raw Data'!A99</f>
         <v>44624.326168981483</v>
@@ -23227,7 +23226,7 @@
         <v>7.0871903448262739</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <f>'Raw Data'!A100</f>
         <v>44624.333113425928</v>
@@ -23296,7 +23295,7 @@
         <v>7.0888561179264018</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <f>'Raw Data'!A101</f>
         <v>44624.340057870373</v>
@@ -23365,7 +23364,7 @@
         <v>7.09419445407931</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <f>'Raw Data'!A102</f>
         <v>44624.347002314818</v>
@@ -23434,7 +23433,7 @@
         <v>7.1026368052891282</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <f>'Raw Data'!A103</f>
         <v>44624.353946759256</v>
@@ -23503,7 +23502,7 @@
         <v>7.1242784729995163</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <f>'Raw Data'!A104</f>
         <v>44624.360891203702</v>
@@ -23572,7 +23571,7 @@
         <v>7.1352995341213612</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <f>'Raw Data'!A105</f>
         <v>44624.367835648147</v>
@@ -23641,7 +23640,7 @@
         <v>7.1761177040510322</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <f>'Raw Data'!A106</f>
         <v>44624.374780092592</v>
@@ -23710,7 +23709,7 @@
         <v>7.2211800416970657</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <f>'Raw Data'!A107</f>
         <v>44624.381724537037</v>
@@ -23779,7 +23778,7 @@
         <v>7.365199018155451</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <f>'Raw Data'!A108</f>
         <v>44624.388668981483</v>
@@ -23848,7 +23847,7 @@
         <v>7.5708487981831718</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <f>'Raw Data'!A109</f>
         <v>44624.395613425928</v>
@@ -23917,7 +23916,7 @@
         <v>7.8804147424950468</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <f>'Raw Data'!A110</f>
         <v>44624.402557870373</v>
@@ -23986,7 +23985,7 @@
         <v>8.2544355016797439</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <f>'Raw Data'!A111</f>
         <v>44624.409502314818</v>
@@ -24055,7 +24054,7 @@
         <v>8.5672117791817861</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <f>'Raw Data'!A112</f>
         <v>44624.416446759256</v>
@@ -24124,7 +24123,7 @@
         <v>8.6487170227714572</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <f>'Raw Data'!A113</f>
         <v>44624.423391203702</v>
@@ -24193,7 +24192,7 @@
         <v>8.877603073127549</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <f>'Raw Data'!A114</f>
         <v>44624.430335648147</v>
@@ -24262,7 +24261,7 @@
         <v>9.2543332373364038</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <f>'Raw Data'!A115</f>
         <v>44624.437280092592</v>
@@ -24331,7 +24330,7 @@
         <v>9.4005042758147734</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <f>'Raw Data'!A116</f>
         <v>44624.444224537037</v>
@@ -24400,7 +24399,7 @@
         <v>9.853351293238731</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <f>'Raw Data'!A117</f>
         <v>44624.451168981483</v>
@@ -24469,7 +24468,7 @@
         <v>10.193354658072078</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <f>'Raw Data'!A118</f>
         <v>44624.458113425928</v>
@@ -24538,7 +24537,7 @@
         <v>10.761190644917951</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <f>'Raw Data'!A119</f>
         <v>44624.465057870373</v>
@@ -24607,7 +24606,7 @@
         <v>11.434045589300283</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <f>'Raw Data'!A120</f>
         <v>44624.472002314818</v>
@@ -24676,7 +24675,7 @@
         <v>11.967016828240222</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <f>'Raw Data'!A121</f>
         <v>44624.478946759256</v>
@@ -24745,7 +24744,7 @@
         <v>12.40055451745212</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <f>'Raw Data'!A122</f>
         <v>44624.485891203702</v>
@@ -24814,7 +24813,7 @@
         <v>13.022621927475134</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <f>'Raw Data'!A123</f>
         <v>44624.492835648147</v>
@@ -24883,7 +24882,7 @@
         <v>13.628830107992345</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <f>'Raw Data'!A124</f>
         <v>44624.499780092592</v>
@@ -24952,7 +24951,7 @@
         <v>14.12540769890386</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <f>'Raw Data'!A125</f>
         <v>44624.506724537037</v>
@@ -25021,7 +25020,7 @@
         <v>14.768253768402547</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <f>'Raw Data'!A126</f>
         <v>44624.513668981483</v>
@@ -25090,7 +25089,7 @@
         <v>15.404777269130301</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <f>'Raw Data'!A127</f>
         <v>44624.520613425928</v>
@@ -25159,7 +25158,7 @@
         <v>15.875551483287147</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <f>'Raw Data'!A128</f>
         <v>44624.527557870373</v>
@@ -25228,7 +25227,7 @@
         <v>16.291687610080377</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <f>'Raw Data'!A129</f>
         <v>44624.534502314818</v>
@@ -25297,7 +25296,7 @@
         <v>16.800725661151859</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <f>'Raw Data'!A130</f>
         <v>44624.541446759256</v>
@@ -25366,7 +25365,7 @@
         <v>17.508926635706427</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <f>'Raw Data'!A131</f>
         <v>44624.548391203702</v>
@@ -25435,7 +25434,7 @@
         <v>18.03864149966045</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <f>'Raw Data'!A132</f>
         <v>44624.555335648147</v>
@@ -25504,7 +25503,7 @@
         <v>18.266974805187083</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <f>'Raw Data'!A133</f>
         <v>44624.562280092592</v>
@@ -25573,7 +25572,7 @@
         <v>19.058127390612501</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <f>'Raw Data'!A134</f>
         <v>44624.569224537037</v>
@@ -25642,7 +25641,7 @@
         <v>19.71708139184171</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <f>'Raw Data'!A135</f>
         <v>44624.576168981483</v>
@@ -25711,7 +25710,7 @@
         <v>20.462560699197365</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <f>'Raw Data'!A136</f>
         <v>44624.583113425928</v>
@@ -25780,7 +25779,7 @@
         <v>21.220529990354134</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <f>'Raw Data'!A137</f>
         <v>44624.590057870373</v>
@@ -25849,7 +25848,7 @@
         <v>21.574106254043791</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <f>'Raw Data'!A138</f>
         <v>44624.597002314818</v>
@@ -25918,7 +25917,7 @@
         <v>22.340982806793466</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <f>'Raw Data'!A139</f>
         <v>44624.603946759256</v>
@@ -25987,7 +25986,7 @@
         <v>23.089924203336555</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <f>'Raw Data'!A140</f>
         <v>44624.610891203702</v>
@@ -26056,7 +26055,7 @@
         <v>23.581748361415698</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <f>'Raw Data'!A141</f>
         <v>44624.617835648147</v>
@@ -26125,7 +26124,7 @@
         <v>23.940960008311592</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <f>'Raw Data'!A142</f>
         <v>44624.624780092592</v>
@@ -26194,7 +26193,7 @@
         <v>24.723200741213642</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <f>'Raw Data'!A143</f>
         <v>44624.631724537037</v>
@@ -26263,7 +26262,7 @@
         <v>25.250519821072501</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <f>'Raw Data'!A144</f>
         <v>44624.638668981483</v>
@@ -26332,7 +26331,7 @@
         <v>25.478676721525432</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <f>'Raw Data'!A145</f>
         <v>44624.645613425928</v>
@@ -26401,7 +26400,7 @@
         <v>25.673379082885198</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <f>'Raw Data'!A146</f>
         <v>44624.652557870373</v>
@@ -26470,7 +26469,7 @@
         <v>25.880563197912963</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <f>'Raw Data'!A147</f>
         <v>44624.659502314818</v>
@@ -26539,7 +26538,7 @@
         <v>26.038980654310127</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <f>'Raw Data'!A148</f>
         <v>44624.666446759256</v>
@@ -26608,7 +26607,7 @@
         <v>26.136670382212323</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <f>'Raw Data'!A149</f>
         <v>44624.673391203702</v>
@@ -26677,7 +26676,7 @@
         <v>26.222803585275329</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <f>'Raw Data'!A150</f>
         <v>44624.680335648147</v>
@@ -26746,7 +26745,7 @@
         <v>26.341980588838346</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <f>'Raw Data'!A151</f>
         <v>44624.687280092592</v>
@@ -26815,7 +26814,7 @@
         <v>26.412401476658665</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <f>'Raw Data'!A152</f>
         <v>44624.694224537037</v>
@@ -26884,7 +26883,7 @@
         <v>26.45419690041259</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <f>'Raw Data'!A153</f>
         <v>44624.701168981483</v>
@@ -26953,7 +26952,7 @@
         <v>26.458245445383664</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <f>'Raw Data'!A154</f>
         <v>44624.708113425928</v>
@@ -27022,7 +27021,7 @@
         <v>26.463317233188452</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <f>'Raw Data'!A155</f>
         <v>44624.715057870373</v>
@@ -27091,7 +27090,7 @@
         <v>26.441033770662401</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <f>'Raw Data'!A156</f>
         <v>44624.722002314818</v>
@@ -27160,7 +27159,7 @@
         <v>26.402851893606407</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <f>'Raw Data'!A157</f>
         <v>44624.728946759256</v>
@@ -27229,7 +27228,7 @@
         <v>26.349200543702445</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <f>'Raw Data'!A158</f>
         <v>44624.735891203702</v>
@@ -27298,7 +27297,7 @@
         <v>26.287292023582189</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <f>'Raw Data'!A159</f>
         <v>44624.742835648147</v>
@@ -27367,7 +27366,7 @@
         <v>26.22022048256779</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <f>'Raw Data'!A160</f>
         <v>44624.749780092592</v>
@@ -27436,7 +27435,7 @@
         <v>26.150848173691255</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <f>'Raw Data'!A161</f>
         <v>44624.756724537037</v>
@@ -27505,7 +27504,7 @@
         <v>26.080419192879614</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <f>'Raw Data'!A162</f>
         <v>44624.763668981483</v>
@@ -27574,7 +27573,7 @@
         <v>26.009712392645834</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <f>'Raw Data'!A163</f>
         <v>44624.770613425928</v>
@@ -27643,7 +27642,7 @@
         <v>25.938877661717175</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <f>'Raw Data'!A164</f>
         <v>44624.777557870373</v>
@@ -27712,7 +27711,7 @@
         <v>25.867914768627031</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <f>'Raw Data'!A165</f>
         <v>44624.784502314818</v>
@@ -27781,7 +27780,7 @@
         <v>25.796783928913023</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <f>'Raw Data'!A166</f>
         <v>44624.791446759256</v>
@@ -27850,7 +27849,7 @@
         <v>25.725435156347082</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <f>'Raw Data'!A167</f>
         <v>44624.798391203702</v>
@@ -27919,7 +27918,7 @@
         <v>25.65400200373783</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <f>'Raw Data'!A168</f>
         <v>44624.805335648147</v>
@@ -27988,7 +27987,7 @@
         <v>25.582484371293894</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <f>'Raw Data'!A169</f>
         <v>44624.812280092592</v>
@@ -28057,7 +28056,7 @@
         <v>25.51088215910589</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <f>'Raw Data'!A170</f>
         <v>44624.819224537037</v>
@@ -28126,7 +28125,7 @@
         <v>25.439020610970275</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <f>'Raw Data'!A171</f>
         <v>44624.826168981483</v>
@@ -28195,7 +28194,7 @@
         <v>25.366983981130659</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <f>'Raw Data'!A172</f>
         <v>44624.833113425928</v>
@@ -28264,7 +28263,7 @@
         <v>25.29481701451888</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <f>'Raw Data'!A173</f>
         <v>44624.840057870373</v>
@@ -28333,7 +28332,7 @@
         <v>25.222519475314993</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <f>'Raw Data'!A174</f>
         <v>44624.847002314818</v>
@@ -28402,7 +28401,7 @@
         <v>25.150091127272379</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <f>'Raw Data'!A175</f>
         <v>44624.853946759256</v>
@@ -28471,7 +28470,7 @@
         <v>25.077491364339586</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <f>'Raw Data'!A176</f>
         <v>44624.860891203702</v>
@@ -28540,7 +28539,7 @@
         <v>25.004937015377759</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <f>'Raw Data'!A177</f>
         <v>44624.867835648147</v>
@@ -28609,7 +28608,7 @@
         <v>24.932160372172635</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <f>'Raw Data'!A178</f>
         <v>44624.874780092592</v>
@@ -28678,7 +28677,7 @@
         <v>24.859429253583958</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <f>'Raw Data'!A179</f>
         <v>44624.881724537037</v>
@@ -28747,7 +28746,7 @@
         <v>24.78669813499528</v>
       </c>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <f>'Raw Data'!A180</f>
         <v>44624.888668981483</v>
@@ -28816,7 +28815,7 @@
         <v>24.713835423087293</v>
       </c>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <f>'Raw Data'!A181</f>
         <v>44624.895613425928</v>
@@ -28885,7 +28884,7 @@
         <v>24.640932173046739</v>
       </c>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <f>'Raw Data'!A182</f>
         <v>44624.902557870373</v>
@@ -28954,7 +28953,7 @@
         <v>24.568069461138752</v>
       </c>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <f>'Raw Data'!A183</f>
         <v>44624.909502314818</v>
@@ -29023,7 +29022,7 @@
         <v>24.495166211098198</v>
       </c>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <f>'Raw Data'!A184</f>
         <v>44624.916446759256</v>
@@ -29088,11 +29087,11 @@
         <v>0</v>
       </c>
       <c r="S133" s="3">
-        <f t="shared" ref="S133:S146" si="14">S132+P132*0.0694</f>
+        <f t="shared" ref="S133:S145" si="14">S132+P132*0.0694</f>
         <v>24.422262961057644</v>
       </c>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <f>'Raw Data'!A185</f>
         <v>44624.923391203702</v>
@@ -29161,7 +29160,7 @@
         <v>24.349400249149657</v>
       </c>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <f>'Raw Data'!A186</f>
         <v>44624.930335648147</v>
@@ -29230,7 +29229,7 @@
         <v>24.276669130560979</v>
       </c>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <f>'Raw Data'!A187</f>
         <v>44624.937280092592</v>
@@ -29299,7 +29298,7 @@
         <v>24.203851997108753</v>
       </c>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <f>'Raw Data'!A188</f>
         <v>44624.944224537037</v>
@@ -29368,7 +29367,7 @@
         <v>24.131075353903629</v>
       </c>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <f>'Raw Data'!A189</f>
         <v>44624.951168981483</v>
@@ -29437,7 +29436,7 @@
         <v>24.058430148573887</v>
       </c>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <f>'Raw Data'!A190</f>
         <v>44624.958113425928</v>
@@ -29506,7 +29505,7 @@
         <v>23.985916143736837</v>
       </c>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <f>'Raw Data'!A191</f>
         <v>44624.965057870373</v>
@@ -29575,7 +29574,7 @@
         <v>23.913447499225736</v>
       </c>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <f>'Raw Data'!A192</f>
         <v>44624.972002314818</v>
@@ -29644,7 +29643,7 @@
         <v>23.841019151183122</v>
       </c>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <f>'Raw Data'!A193</f>
         <v>44624.978946759256</v>
@@ -29713,7 +29712,7 @@
         <v>23.768721611979235</v>
       </c>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <f>'Raw Data'!A194</f>
         <v>44624.985891203702</v>
@@ -29782,7 +29781,7 @@
         <v>23.696599788607518</v>
       </c>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <f>'Raw Data'!A195</f>
         <v>44624.992835648147</v>
@@ -29851,7 +29850,7 @@
         <v>23.624477965235801</v>
       </c>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <f>'Raw Data'!A196</f>
         <v>44624.999780092592</v>
@@ -29909,7 +29908,7 @@
         <v>23.552486397105532</v>
       </c>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>24</v>
       </c>
@@ -29936,7 +29935,7 @@
       <c r="R146" s="3"/>
       <c r="S146" s="3"/>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="2"/>
       <c r="Q147" t="s">
@@ -29948,199 +29947,199 @@
       </c>
       <c r="S147" s="3"/>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="2"/>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="2"/>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="2"/>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="2"/>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="2"/>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="2"/>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="2"/>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="2"/>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="2"/>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="2"/>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="2"/>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="2"/>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="2"/>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="2"/>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="2"/>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="2"/>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="2"/>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="2"/>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="2"/>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="2"/>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="2"/>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="2"/>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="2"/>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="2"/>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="2"/>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="2"/>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="2"/>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="2"/>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="2"/>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="2"/>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="2"/>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="2"/>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="2"/>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" s="2"/>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="2"/>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="2"/>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="2"/>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="2"/>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="2"/>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" s="2"/>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="2"/>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="2"/>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" s="2"/>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="2"/>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="2"/>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193" s="2"/>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="B194" s="2"/>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195" s="2"/>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="B196" s="2"/>
     </row>
@@ -30160,7 +30159,7 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
